--- a/medicine/Psychotrope/Gallician/Gallician.xlsx
+++ b/medicine/Psychotrope/Gallician/Gallician.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallician est un village de la commune française de Vauvert, située dans le département du Gard, en région Occitanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallician se situe en pleine Petite Camargue, au pied du plateau des Costières, sur les rives du Canal du Rhône à Sète et de l'étang de Scamandre.
 Peuplé d'environ 1 000 habitants, Gallician vit surtout de la viticulture - AOC Costières-de-Nîmes - activité principale à laquelle on peut toutefois ajouter la pêche et la « sagne », c'est-à-dire la coupe du roseau. Doté d'un port de plaisance et d'une halte nautique, Gallician se trouve sur les rives du canal du Rhône à Sète, canal permettant la circulation des bateaux de tourisme comme des péniches. Le canal d'irrigation du Bas-Rhône Languedoc s'écoule quant à lui au nord du hameau. La voie verte Vauvert-Gallician le longe sur 7 km entre ces deux localités.
@@ -544,11 +558,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant toute la féodalité, les marais sont la propriété du Baron de Posquières-Vauvert mais les habitants de la commune y possèdent quelques droits d'usage, notamment pour la récolte des roseaux et la pêche.
 Dans les années 1770-80, une famille de Vauvert, la famille « Gallissian » installe une cabane sur le chemin de Saint-Gilles à Aigues-Mortes, en bordure des marais à la jonction du fossé qui arrive du mas de Beck. Sur la carte de Cassini de 1800, ce fossé est nommé « Val Gallissian », ce qui confirme la présence en ce lieu des propriétés de la famille Gallissian. La création du canal de navigation et du pont à la fin du XVIIIe siècle favorisèrent le développement d'activités agricoles, artisanales et commerciales à Gallissian. 
-À la fin du XIXe siècle, les administrateurs du cadastre modifièrent l'orthographe de Gallissian en « Gallician »[1].
+À la fin du XIXe siècle, les administrateurs du cadastre modifièrent l'orthographe de Gallissian en « Gallician ».
 La cave pilote de Gallician a elle été fondée en 1951.
 </t>
         </is>
